--- a/pincode_delhi_ncr.xlsx
+++ b/pincode_delhi_ncr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -484,11 +484,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>110085</t>
+          <t>110042</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>208</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110084</t>
+          <t>110026</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -520,11 +520,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110089</t>
+          <t>110052</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -538,11 +538,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110054</t>
+          <t>110056</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -556,11 +556,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110052</t>
+          <t>110063</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -574,11 +574,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110042</t>
+          <t>110083</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>110034</t>
+          <t>110084</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -610,11 +610,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110033</t>
+          <t>110085</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -646,11 +646,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>110089</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -664,11 +664,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>110007</t>
+          <t>110034</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -682,11 +682,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>110015</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>110047</t>
+          <t>110009</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>122016</t>
+          <t>110008</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>110097</t>
+          <t>110033</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -754,11 +754,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>110070</t>
+          <t>110093</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -772,11 +772,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>122002</t>
+          <t>110095</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -790,11 +790,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>122003</t>
+          <t>110096</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -808,11 +808,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>122009</t>
+          <t>201005</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -826,11 +826,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>122010</t>
+          <t>201307</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -844,11 +844,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>110038</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -862,11 +862,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>122022</t>
+          <t>201010</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -880,11 +880,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>122011</t>
+          <t>201011</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -894,15 +894,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>110074</t>
+          <t>110051</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -912,15 +912,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>110030</t>
+          <t>201012</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>110080</t>
+          <t>201014</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>121009</t>
+          <t>110092</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
@@ -966,15 +966,15 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>110068</t>
+          <t>201309</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -988,11 +988,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>122011</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -1002,15 +1002,15 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>110027</t>
+          <t>110071</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -1020,15 +1020,15 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>110061</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1038,15 +1038,15 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>110015</t>
+          <t>122010</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>110064</t>
+          <t>122018</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>110097</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>4</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>110063</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>110060</t>
+          <t>122022</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -1110,15 +1110,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>110047</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>179</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -1128,15 +1128,15 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>110058</t>
+          <t>122016</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1146,15 +1146,15 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>110026</t>
+          <t>122017</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>110056</t>
+          <t>122002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
@@ -1182,15 +1182,15 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>122003</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>110028</t>
+          <t>110038</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>110046</t>
+          <t>122004</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>110087</t>
+          <t>122006</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -1254,15 +1254,15 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>122001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>62</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
@@ -1272,15 +1272,15 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>110008</t>
+          <t>122009</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -1290,15 +1290,15 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>122017</t>
+          <t>121012</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1308,15 +1308,15 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>122006</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -1326,15 +1326,15 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>122004</t>
+          <t>121002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1344,15 +1344,15 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>122001</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>345</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1362,15 +1362,15 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>122018</t>
+          <t>121007</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1380,15 +1380,15 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>110003</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1398,15 +1398,15 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>201001</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>149</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -1416,15 +1416,15 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>110029</t>
+          <t>201002</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -1434,15 +1434,15 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>110014</t>
+          <t>201009</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
@@ -1452,15 +1452,15 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>110016</t>
+          <t>201013</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1470,15 +1470,15 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>110024</t>
+          <t>201016</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -1488,15 +1488,15 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>110048</t>
+          <t>201017</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>110066</t>
+          <t>201007</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>110065</t>
+          <t>110080</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>121009</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1564,11 +1564,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>110017</t>
+          <t>121003</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>110021</t>
+          <t>110074</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
@@ -1618,11 +1618,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>110057</t>
+          <t>201304</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
@@ -1636,11 +1636,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>110019</t>
+          <t>121013</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>110020</t>
+          <t>201305</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>110049</t>
+          <t>110068</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -1686,11 +1686,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>110067</t>
+          <t>110087</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1704,15 +1704,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>110075</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>110061</t>
+          <t>110059</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73">
@@ -1744,11 +1744,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>110071</t>
+          <t>110078</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>110041</t>
+          <t>110028</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
@@ -1780,11 +1780,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>110059</t>
+          <t>110077</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>329</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -1798,11 +1798,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>110037</t>
+          <t>110041</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>110078</t>
+          <t>110027</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>110075</t>
+          <t>110043</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>110043</t>
+          <t>110045</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>110045</t>
+          <t>110046</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>110077</t>
+          <t>110064</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
@@ -1902,15 +1902,15 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>110018</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83">
@@ -1920,15 +1920,15 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>121007</t>
+          <t>110058</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
@@ -1942,11 +1942,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>121002</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
@@ -1960,11 +1960,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>110037</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -1978,11 +1978,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -1996,11 +1996,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>121012</t>
+          <t>110067</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>121013</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>121003</t>
+          <t>110066</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>121008</t>
+          <t>110021</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
@@ -2064,15 +2064,15 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>110032</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92">
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>110031</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
@@ -2100,15 +2100,15 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>201301</t>
+          <t>110070</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>425</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -2118,15 +2118,15 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>110092</t>
+          <t>110030</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>194</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
@@ -2136,15 +2136,15 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>110053</t>
+          <t>110016</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96">
@@ -2154,15 +2154,15 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>201307</t>
+          <t>110057</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -2176,11 +2176,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>110095</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>110007</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
@@ -2212,11 +2212,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>110093</t>
+          <t>110031</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>110051</t>
+          <t>110054</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>201309</t>
+          <t>110032</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102">
@@ -2262,15 +2262,15 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>201303</t>
+          <t>110060</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
@@ -2280,15 +2280,15 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>201304</t>
+          <t>110094</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
@@ -2298,15 +2298,285 @@
         </is>
       </c>
       <c r="B104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>110053</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
         <v>10</v>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>201305</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>54</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>110048</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>10</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>201303</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>201301</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>10</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>110049</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>10</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>110024</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>10</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>10</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>110062</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>10</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>110065</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>10</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>110020</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>10</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>110019</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>10</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>110017</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>10</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>110091</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>10</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>10</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>110014</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
